--- a/911_Performance_Dash.xlsx
+++ b/911_Performance_Dash.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Drew\Desktop\Datasets\Memphis\911\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72956EEA-85C8-45C4-83B9-A4D3AEC25022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C03C485-B918-4BCE-A493-A67F7FA1CB4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -614,14 +614,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="15" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -25741,7 +25741,7 @@
   <dimension ref="A1:U54"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:U4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25751,98 +25751,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
     </row>
     <row r="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="18" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -25907,7 +25907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T103"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="H91" sqref="H91"/>
     </sheetView>
   </sheetViews>
@@ -25965,7 +25965,7 @@
       <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="10" t="s">
         <v>18</v>
       </c>
       <c r="N1" t="s">
@@ -29894,7 +29894,7 @@
       <c r="J83">
         <v>5</v>
       </c>
-      <c r="K83" s="11">
+      <c r="K83" s="9">
         <v>6</v>
       </c>
       <c r="L83">
@@ -29942,7 +29942,7 @@
       <c r="J84">
         <v>4</v>
       </c>
-      <c r="K84" s="11">
+      <c r="K84" s="9">
         <v>5</v>
       </c>
       <c r="L84">
@@ -29990,7 +29990,7 @@
       <c r="J85">
         <v>5</v>
       </c>
-      <c r="K85" s="11">
+      <c r="K85" s="9">
         <v>6</v>
       </c>
       <c r="L85">
@@ -30038,7 +30038,7 @@
       <c r="J86">
         <v>8</v>
       </c>
-      <c r="K86" s="11">
+      <c r="K86" s="9">
         <v>7</v>
       </c>
       <c r="L86">
@@ -30086,7 +30086,7 @@
       <c r="J87">
         <v>2</v>
       </c>
-      <c r="K87" s="11">
+      <c r="K87" s="9">
         <v>5</v>
       </c>
       <c r="L87">
@@ -30134,7 +30134,7 @@
       <c r="J88">
         <v>3</v>
       </c>
-      <c r="K88" s="11">
+      <c r="K88" s="9">
         <v>5</v>
       </c>
       <c r="L88">
@@ -30147,12 +30147,12 @@
         <f t="shared" si="7"/>
         <v>14.278787878787879</v>
       </c>
-      <c r="O88" s="10" t="s">
+      <c r="O88" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="P88" s="10"/>
-      <c r="Q88" s="10"/>
-      <c r="R88" s="10"/>
+      <c r="P88" s="12"/>
+      <c r="Q88" s="12"/>
+      <c r="R88" s="12"/>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
@@ -30227,10 +30227,10 @@
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
-      <c r="O91" s="10" t="s">
+      <c r="O91" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="P91" s="10"/>
+      <c r="P91" s="12"/>
       <c r="Q91" s="6" t="s">
         <v>15</v>
       </c>

--- a/911_Performance_Dash.xlsx
+++ b/911_Performance_Dash.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Drew\Desktop\Datasets\Memphis\911\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C03C485-B918-4BCE-A493-A67F7FA1CB4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE456C1A-FF04-40F1-AE48-F7BEDE2362FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="2" r:id="rId1"/>
-    <sheet name="911_Performance" sheetId="1" r:id="rId2"/>
+    <sheet name="911_Performance" sheetId="1" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
